--- a/template Excel/Sales/PerformanceEvaluationSales.xlsx
+++ b/template Excel/Sales/PerformanceEvaluationSales.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\Sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE4A88B-51E1-4E9B-A9FA-2D0624E5F758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5165EE8-1386-4F9A-8037-3C52254D8656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F6AA457D-D7C4-4494-ACEC-F049451AE72E}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>EmployeePerformanceSalesID</t>
-  </si>
-  <si>
     <t>Employee</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>DealClosureRate</t>
+  </si>
+  <si>
+    <t>PerformanceEvaluationSaleId</t>
   </si>
 </sst>
 </file>
@@ -450,9 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA453CA-F5A4-423E-A510-3B28101F1C67}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -468,28 +466,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
